--- a/biology/Histoire de la zoologie et de la botanique/John_Ernest_Randall/John_Ernest_Randall.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Ernest_Randall/John_Ernest_Randall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Ernest Randall Jr. est un biologiste américain, né le 22 mai 1924 à Los Angeles et mort le 26 avril 2020[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Ernest Randall Jr. est un biologiste américain, né le 22 mai 1924 à Los Angeles et mort le 26 avril 2020.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de John Ernest Randall et de Mildred née McKibben. Il obtient son Bachelor of Arts à l’université de Californie à Los Angeles en 1950 et son Ph. D. à l’université d'Hawaii en 1955. Il se marie le 9 novembre 1951 avec Helen L.S. Au dont il aura deux enfants.
 Il est chercheur à l’université d’Hawaii de 1953 à 1955, chercheur associé au Muséum Bishop de 1955 à 1956, puis à l’université de Miami de 1957 à 1961. Il est professeur de biologie et directeur de l’institut de biologie marine à l'université de Porto Rico de 1961 à 1965, de l’institut océanique de 1965 à 1966. À partir de 1965, il est ichtyologiste au Muséum Bishop et enseigne à l’Institut de biologie marine d’Hawaii.
